--- a/LogicPaper.xlsx
+++ b/LogicPaper.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="10395" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="10395" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DEFOX" sheetId="2" r:id="rId1"/>
     <sheet name="cyborg" sheetId="1" r:id="rId2"/>
     <sheet name="math" sheetId="3" r:id="rId3"/>
     <sheet name="mirror" sheetId="4" r:id="rId4"/>
+    <sheet name="nm" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="M_U" localSheetId="3">mirror!$E$123:$F$124</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t>Structures</t>
     <phoneticPr fontId="4"/>
@@ -450,6 +451,98 @@
     <t>hence U is a 2 x 2 matrix, it must have another eigen value and vector</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Newton Method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Polynomials</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>some origami Axioms require to solve</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Quadratic Equation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cubic Equation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Axiom 3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Axiom 5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Axiom 7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Axiom 6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>other than root operations:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>, while DEFOX implements only 4 arithmetic operations:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>, which leads numbers to out of the Field (~ rational numbers)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Approximation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DEFOX tries to approximate these roots by solving the equation by Newton Method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Newton Method is one of the fastest solver algorithm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>But it is also known as "generally unstable method" wrt the initial value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>using a reccurence relaion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Here, we focusing on solving Quadratic equations;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>, which the unstability can be managed eazily shown as follows</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,16 +993,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.69721881222178816</c:v>
+                  <c:v>1.5613777095521697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4663021827176905</c:v>
+                  <c:v>3.8835988679248867E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99386746875143706</c:v>
+                  <c:v>7.9846708039983652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7063501136337305</c:v>
+                  <c:v>2.7567454201469377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,16 +1014,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.50172406692161164</c:v>
+                  <c:v>9.1756971777813465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5511220008408637</c:v>
+                  <c:v>3.9027212035321259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5593805909316583</c:v>
+                  <c:v>2.0550840591688893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8643616804719878</c:v>
+                  <c:v>0.44260465163959428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,16 +1075,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-4.8335661631773537</c:v>
+                  <c:v>3.2514835319954853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.1214874903537249</c:v>
+                  <c:v>-1.3842617214393491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7787224760439893</c:v>
+                  <c:v>-5.3828271283174089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.367990818564337</c:v>
+                  <c:v>-5.4669882520671322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,16 +1096,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.6498127984709674</c:v>
+                  <c:v>7.9081178109488599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.241964255644424</c:v>
+                  <c:v>4.9700444861210737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4707393354622438</c:v>
+                  <c:v>12.08070750840572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.920117379620537</c:v>
+                  <c:v>6.6104049058001468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,11 +1190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1428086144"/>
-        <c:axId val="-1428091040"/>
+        <c:axId val="2023158704"/>
+        <c:axId val="2023159248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1428086144"/>
+        <c:axId val="2023158704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,12 +1251,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1428091040"/>
+        <c:crossAx val="2023159248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1428091040"/>
+        <c:axId val="2023159248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1313,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1428086144"/>
+        <c:crossAx val="2023158704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2863,13 +2959,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>=0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3342,19 +3432,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>∗</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
+                      <m:t>∗1=</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -4168,13 +4246,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>−2</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -4198,13 +4270,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>=0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -5167,8 +5233,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2052228" cy="229615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -5361,7 +5427,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -5420,8 +5486,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1256049" cy="223074"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -5572,7 +5638,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -5631,8 +5697,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2197974" cy="290464"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -5844,7 +5910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -5903,8 +5969,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2808589" cy="433837"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -6076,13 +6142,7 @@
                                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>−</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>1</m:t>
+                                <m:t>−1</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -6238,7 +6298,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -6297,8 +6357,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="775533" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
@@ -6372,13 +6432,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>=0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -6388,7 +6442,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
@@ -6447,8 +6501,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2028569" cy="971035"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -6890,7 +6944,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -7022,8 +7076,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1875450" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -7180,7 +7234,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -7239,8 +7293,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1789464" cy="559577"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -7687,7 +7741,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -7819,8 +7873,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1082861" cy="445828"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
@@ -7973,7 +8027,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
@@ -8032,8 +8086,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1087734" cy="445828"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
@@ -8186,7 +8240,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
@@ -8245,8 +8299,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1803571" cy="1076064"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
@@ -8438,13 +8492,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>−2</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -8502,13 +8550,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>−2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -8627,7 +8669,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
@@ -8720,8 +8762,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2885982" cy="433580"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
@@ -9021,7 +9063,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
@@ -9080,8 +9122,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2596608" cy="484043"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
@@ -9149,13 +9191,7 @@
                           <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
+                          <m:t>−2</m:t>
                         </m:r>
                         <m:f>
                           <m:fPr>
@@ -9271,13 +9307,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>+2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -9390,7 +9420,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
@@ -9449,8 +9479,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1822422" cy="891654"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
@@ -9547,23 +9577,7 @@
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                        <a:ln>
-                          <a:noFill/>
-                        </a:ln>
-                        <a:solidFill>
-                          <a:prstClr val="black"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:uLnTx/>
-                        <a:uFillTx/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>−2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -10069,7 +10083,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
@@ -10207,8 +10221,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1147429" cy="229615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -10244,6 +10258,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10368,7 +10383,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -10426,8 +10441,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1956561" cy="665503"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
@@ -10463,6 +10478,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10541,13 +10557,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
+                      <m:t>−2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -10811,7 +10821,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
@@ -10930,8 +10940,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="271677" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
@@ -10967,6 +10977,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11000,7 +11011,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
@@ -11058,8 +11069,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2929392" cy="1575624"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
@@ -11095,6 +11106,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11180,7 +11192,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11298,19 +11310,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
+                      <m:t>=2−</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -11808,37 +11808,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>=2−2−0</m:t>
                     </m:r>
                   </m:oMath>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -11846,13 +11816,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>=0</m:t>
                     </m:r>
                   </m:oMath>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -11860,19 +11824,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>⇒</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
+                      <m:t>⇒0−</m:t>
                     </m:r>
                     <m:d>
                       <m:dPr>
@@ -11887,13 +11839,7 @@
                           <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
+                          <m:t>−1</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -11901,13 +11847,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>1</m:t>
+                      <m:t>=1</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -11917,7 +11857,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
@@ -12071,8 +12011,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1470403" cy="452175"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
@@ -12108,6 +12048,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12478,7 +12419,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
@@ -12552,8 +12493,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1649682" cy="681469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
@@ -12589,6 +12530,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12879,7 +12821,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
@@ -12963,8 +12905,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1589794" cy="229615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
@@ -13000,6 +12942,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13162,7 +13105,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
@@ -13220,8 +13163,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1602297" cy="229615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
@@ -13257,6 +13200,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13419,7 +13363,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
@@ -13477,8 +13421,8 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2894126" cy="731419"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
@@ -13514,6 +13458,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14259,7 +14204,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
@@ -14399,8 +14344,8 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1599797" cy="459228"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
@@ -14436,6 +14381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14716,7 +14662,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
@@ -14770,6 +14716,452 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>|𝑛′〉≔𝑈 ̂_2 |𝑛_1^′ 〉+|𝑛_2^′ 〉</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="395288" cy="279115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1643062" y="4443412"/>
+              <a:ext cx="395288" cy="279115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e/>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1643062" y="4443412"/>
+              <a:ext cx="395288" cy="279115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="395288" cy="279115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2238375" y="4457700"/>
+              <a:ext cx="395288" cy="279115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:rad>
+                      <m:radPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg>
+                        <m:r>
+                          <a:rPr lang="ja-JP" altLang="en-US"/>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:deg>
+                      <m:e/>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2238375" y="4457700"/>
+              <a:ext cx="395288" cy="279115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∛</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2045175" cy="223074"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1471612" y="7253287"/>
+              <a:ext cx="2045175" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1471612" y="7253287"/>
+              <a:ext cx="2045175" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)≔𝑥^2−2𝐵𝑥+𝐶=0</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             </a:p>
@@ -15471,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15811,19 +16203,19 @@
       </c>
       <c r="E130" s="6">
         <f ca="1">RAND()*10</f>
-        <v>0.69721881222178816</v>
+        <v>1.5613777095521697</v>
       </c>
       <c r="F130" s="6">
         <f ca="1">RAND()*10</f>
-        <v>0.50172406692161164</v>
+        <v>9.1756971777813465</v>
       </c>
       <c r="G130" s="6">
         <f t="array" aca="1" ref="G130:H130" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E130:F130)))+V_NN</f>
-        <v>-4.8335661631773537</v>
+        <v>3.2514835319954853</v>
       </c>
       <c r="H130" s="6">
         <f ca="1"/>
-        <v>4.6498127984709674</v>
+        <v>7.9081178109488599</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.4">
@@ -15833,19 +16225,19 @@
       </c>
       <c r="E131" s="6">
         <f t="shared" ref="E131:F133" ca="1" si="0">RAND()*10</f>
-        <v>8.4663021827176905</v>
+        <v>3.8835988679248867E-2</v>
       </c>
       <c r="F131" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5511220008408637</v>
+        <v>3.9027212035321259</v>
       </c>
       <c r="G131" s="6">
         <f t="array" aca="1" ref="G131:H131" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E131:F131)))+V_NN</f>
-        <v>-3.1214874903537249</v>
+        <v>-1.3842617214393491</v>
       </c>
       <c r="H131" s="6">
         <f ca="1"/>
-        <v>13.241964255644424</v>
+        <v>4.9700444861210737</v>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.4">
@@ -15855,19 +16247,19 @@
       </c>
       <c r="E132" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99386746875143706</v>
+        <v>7.9846708039983652</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5593805909316583</v>
+        <v>2.0550840591688893</v>
       </c>
       <c r="G132" s="6">
         <f t="array" aca="1" ref="G132:H132" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E132:F132)))+V_NN</f>
-        <v>3.7787224760439893</v>
+        <v>-5.3828271283174089</v>
       </c>
       <c r="H132" s="6">
         <f ca="1"/>
-        <v>7.4707393354622438</v>
+        <v>12.08070750840572</v>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.4">
@@ -15877,19 +16269,19 @@
       </c>
       <c r="E133" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7063501136337305</v>
+        <v>2.7567454201469377</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8643616804719878</v>
+        <v>0.44260465163959428</v>
       </c>
       <c r="G133" s="6">
         <f t="array" aca="1" ref="G133:H133" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E133:F133)))+V_NN</f>
-        <v>-1.367990818564337</v>
+        <v>-5.4669882520671322</v>
       </c>
       <c r="H133" s="6">
         <f ca="1"/>
-        <v>11.920117379620537</v>
+        <v>6.6104049058001468</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
@@ -15918,4 +16310,139 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LogicPaper.xlsx
+++ b/LogicPaper.xlsx
@@ -5,24 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Monolith\Origami\DIAMOND\DEFOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long_\git\DIAMOND\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="10395" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="10395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DEFOX" sheetId="2" r:id="rId1"/>
-    <sheet name="cyborg" sheetId="1" r:id="rId2"/>
-    <sheet name="math" sheetId="3" r:id="rId3"/>
-    <sheet name="mirror" sheetId="4" r:id="rId4"/>
-    <sheet name="nm" sheetId="5" r:id="rId5"/>
+    <sheet name="math" sheetId="3" r:id="rId2"/>
+    <sheet name="mirror" sheetId="4" r:id="rId3"/>
+    <sheet name="nm" sheetId="5" r:id="rId4"/>
+    <sheet name="cyborg" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="M_U" localSheetId="3">mirror!$E$123:$F$124</definedName>
-    <definedName name="V_N" localSheetId="3">mirror!$E$120:$F$120</definedName>
-    <definedName name="V_NN" localSheetId="3">mirror!$E$125:$F$125</definedName>
-    <definedName name="V_S" localSheetId="3">mirror!$E$117:$F$117</definedName>
+    <definedName name="M_U" localSheetId="2">mirror!$E$123:$F$124</definedName>
+    <definedName name="V_N" localSheetId="2">mirror!$E$120:$F$120</definedName>
+    <definedName name="V_NN" localSheetId="2">mirror!$E$125:$F$125</definedName>
+    <definedName name="V_S" localSheetId="2">mirror!$E$117:$F$117</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
   <si>
     <t>Structures</t>
     <phoneticPr fontId="4"/>
@@ -456,10 +456,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Polynomials</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>some origami Axioms require to solve</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -504,15 +500,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>other than root operations:</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>, while DEFOX implements only 4 arithmetic operations:</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>, which leads numbers to out of the Field (~ rational numbers)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -524,23 +512,143 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Newton Method is one of the fastest solver algorithm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>But it is also known as "generally unstable method" wrt the initial value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>using a reccurence relaion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Here, we focusing on solving Quadratic equations;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>, which the unstability can be managed eazily shown as follows</t>
+    <t>Quadraic Numbers</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>reccurence relaion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Quadraic Equation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Newton Method is one of the fastest solver algorithm given by a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Polynomial Equations</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>, which can not achieve any exact root operations:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>It is also known as "generally unstable method" wrt the initial value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>But some techniques can eliminate such unstabilities</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Here, taking the initial value as</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>and the the larger root:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>and it can be proven that</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Newton method gives</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thus,</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>so that yn stays semi-positive</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iteration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Now define</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Especially, taking B neutral, the method becomes the square root operation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>through the definition</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>, it leads to be sufficient to have this square root approximation (B=0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ensures all the x positive</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Square Root Operation</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -548,7 +656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,16 +715,29 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -773,16 +894,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,8 +993,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
@@ -993,16 +1156,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5613777095521697</c:v>
+                  <c:v>8.0645679068632354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8835988679248867E-2</c:v>
+                  <c:v>0.21586656995672082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9846708039983652</c:v>
+                  <c:v>5.6538781934506721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7567454201469377</c:v>
+                  <c:v>8.2282149288923261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1177,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1756971777813465</c:v>
+                  <c:v>0.81193841789655163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9027212035321259</c:v>
+                  <c:v>5.0578116247844749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0550840591688893</c:v>
+                  <c:v>1.1536590925797863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44260465163959428</c:v>
+                  <c:v>8.3481888340108483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,16 +1238,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2514835319954853</c:v>
+                  <c:v>-6.5986181327410165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3842617214393491</c:v>
+                  <c:v>-0.32494347979478544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.3828271283174089</c:v>
+                  <c:v>-5.5955731652895935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4669882520671322</c:v>
+                  <c:v>0.59036110056056312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,16 +1259,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.9081178109488599</c:v>
+                  <c:v>11.809327947599741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9700444861210737</c:v>
+                  <c:v>5.4634191620981047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.08070750840572</c:v>
+                  <c:v>9.5907476116349848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6104049058001468</c:v>
+                  <c:v>14.076579205259669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,11 +1353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2023158704"/>
-        <c:axId val="2023159248"/>
+        <c:axId val="760489488"/>
+        <c:axId val="760491664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2023158704"/>
+        <c:axId val="760489488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,12 +1414,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023159248"/>
+        <c:crossAx val="760491664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2023159248"/>
+        <c:axId val="760491664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1476,453 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023158704"/>
+        <c:crossAx val="760489488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>nm!$E$99</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>error</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nm!$E$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nm!$C$100:$C$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nm!$E$100:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.41421356237309492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0660171779821193E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7346066809422744E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5018250929532684E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.127542503809309E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1080427248"/>
+        <c:axId val="1080422352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1080427248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080422352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1080422352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080427248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,7 +2043,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2005,7 +3170,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="630622" cy="219163"/>
@@ -2138,7 +3303,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="507126" cy="219163"/>
@@ -2271,7 +3436,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="429733" cy="219163"/>
@@ -2404,7 +3569,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="630622" cy="219163"/>
@@ -2537,7 +3702,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1825180" cy="219163"/>
@@ -2736,7 +3901,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828817" cy="219163"/>
@@ -2877,7 +4042,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="854465" cy="219163"/>
@@ -2959,7 +4124,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3024,7 +4195,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1146276" cy="219163"/>
@@ -3176,7 +4347,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1825180" cy="219163"/>
@@ -3374,7 +4545,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="749115" cy="219163"/>
@@ -3432,7 +4603,19 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>∗1=</m:t>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -3502,7 +4685,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="997517" cy="219163"/>
@@ -3654,7 +4837,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2041906" cy="219163"/>
@@ -3853,7 +5036,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2025811" cy="219163"/>
@@ -4052,7 +5235,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174728" cy="219163"/>
@@ -4169,7 +5352,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1427057" cy="223074"/>
@@ -4246,7 +5429,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -4270,7 +5459,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -4334,7 +5529,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="841449" cy="219163"/>
@@ -4486,7 +5681,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2202783" cy="219163"/>
@@ -4716,7 +5911,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1117614" cy="219163"/>
@@ -4881,7 +6076,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="665502" cy="219163"/>
@@ -5034,7 +6229,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1578702" cy="277705"/>
@@ -5213,6 +6408,880 @@
                 <a:t>⇐𝑥=𝐴±√(𝐴^2−𝐵)</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147429</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106016</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="146642" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584712" y="5232951"/>
+              <a:ext cx="146642" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584712" y="5232951"/>
+              <a:ext cx="146642" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666894</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46269</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="150362" cy="368947"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4082756" y="5577338"/>
+              <a:ext cx="150362" cy="368947"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4082756" y="5577338"/>
+              <a:ext cx="150362" cy="368947"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛/𝑑</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424128</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19993</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="872290" cy="404150"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4523162" y="6024027"/>
+              <a:ext cx="872290" cy="404150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4523162" y="6024027"/>
+              <a:ext cx="872290" cy="404150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_1/𝑑_1 +𝑛_2/𝑑_2  √2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516487" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4812196" y="6808304"/>
+              <a:ext cx="516487" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑏</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4812196" y="6808304"/>
+              <a:ext cx="516487" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎+𝑖𝑏</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1009507" cy="454804"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4841327" y="6713483"/>
+              <a:ext cx="1009507" cy="454804"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∞</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑝</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑑</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑝</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4841327" y="6713483"/>
+              <a:ext cx="1009507" cy="454804"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑26_(𝑝=1)^∞▒〖𝑛_𝑝/𝑑_𝑝  √𝑝〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -6142,7 +8211,13 @@
                                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>−1</m:t>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -6432,7 +8507,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -8492,7 +10573,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -8550,7 +10637,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -9191,7 +11284,13 @@
                           <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−2</m:t>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
                         </m:r>
                         <m:f>
                           <m:fPr>
@@ -9307,7 +11406,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>+2</m:t>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -9474,13 +11579,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>165588</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>122360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1822422" cy="891654"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
@@ -9488,13 +11593,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181100" y="15411450"/>
+              <a:off x="854319" y="16644572"/>
               <a:ext cx="1822422" cy="891654"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -9577,7 +11687,23 @@
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:prstClr val="black"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uLnTx/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -10083,7 +12209,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
@@ -10091,13 +12217,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181100" y="15411450"/>
+              <a:off x="854319" y="16644572"/>
               <a:ext cx="1822422" cy="891654"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -10143,14 +12274,34 @@
                 <a:t>𝕀−2 |𝑛〉〈𝑛┤|/|𝑛|^2 </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t/>
               </a:r>
               <a:br>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
               </a:br>
               <a:r>
@@ -10557,7 +12708,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -11310,7 +13467,19 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=2−</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -11808,7 +13977,37 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=2−2−0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -11816,7 +14015,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -11824,7 +14029,19 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>⇒0−</m:t>
+                      <m:t>⇒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
                     </m:r>
                     <m:d>
                       <m:dPr>
@@ -11839,7 +14056,13 @@
                           <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−1</m:t>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -11847,7 +14070,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=1</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -14738,8 +16967,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="395288" cy="279115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -14775,6 +17004,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14801,7 +17031,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -14859,8 +17089,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="395288" cy="279115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
@@ -14896,6 +17126,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14913,7 +17144,9 @@
                       </m:radPr>
                       <m:deg>
                         <m:r>
-                          <a:rPr lang="ja-JP" altLang="en-US"/>
+                          <a:rPr lang="ja-JP" altLang="en-US">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
                           <m:t>3</m:t>
                         </m:r>
                       </m:deg>
@@ -14927,7 +17160,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
@@ -14982,7 +17215,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2045175" cy="223074"/>
@@ -15023,6 +17256,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15087,7 +17321,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−2</m:t>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -15099,7 +17339,7 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>+</m:t>
+                      <m:t>−</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
@@ -15111,7 +17351,13 @@
                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -15157,11 +17403,4460 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑓(𝑥)≔𝑥^2−2𝐵𝑥+𝐶=0</a:t>
+                <a:t>𝑓(𝑥)≔𝑥^2−2𝐵𝑥−𝐶=0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149570</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>20465</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1168461" cy="409536"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1515915" y="10517672"/>
+              <a:ext cx="1168461" cy="409536"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑓</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑥</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1515915" y="10517672"/>
+              <a:ext cx="1168461" cy="409536"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑓/𝑑𝑥=2(𝑥−𝐵)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319453</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1553117" cy="455894"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1696915" y="6745165"/>
+              <a:ext cx="1553117" cy="455894"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1696915" y="6745165"/>
+              <a:ext cx="1553117" cy="455894"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑛+1)≔𝑥_𝑛−𝑓(𝑥_𝑛 )/𝑓′(𝑥_𝑛 ) </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>649165</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="217688" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2026627" y="7704992"/>
+              <a:ext cx="217688" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2026627" y="7704992"/>
+              <a:ext cx="217688" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418140</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94997</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2482731" cy="1889876"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1784485" y="13666480"/>
+              <a:ext cx="2482731" cy="1889876"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐵</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐵</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1784485" y="13666480"/>
+              <a:ext cx="2482731" cy="1889876"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑛+1)=𝑥_𝑛−(𝑥_𝑛^2−2𝐵𝑥_𝑛−𝐶)/2(𝑥_𝑛−𝐵) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑥_𝑛−((𝑥_𝑛−𝐵)^2−𝐶−𝐵^2)/2(𝑥_𝑛−𝐵) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑥_𝑛−1/2 (𝑥_𝑛−𝐵)+(𝐶+𝐵^2)/2(𝑥_𝑛−𝐵) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑛+1)=  1/2 (𝑥_𝑛+𝐵+(𝐶+𝐵^2)/(𝑥_𝑛−𝐵))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>383627</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160283</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1962910" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1749972" y="17988455"/>
+              <a:ext cx="1962910" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1749972" y="17988455"/>
+              <a:ext cx="1962910" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_0≔𝑥_0−𝐵=|𝐵|+|𝐶|</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232542</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>193127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1449307" cy="276999"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1598887" y="9980886"/>
+              <a:ext cx="1449307" cy="276999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1598887" y="9980886"/>
+              <a:ext cx="1449307" cy="276999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 ̅≔𝐵+√(𝐵^2+𝐶)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72258</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1157240" cy="280782"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1438603" y="7554310"/>
+              <a:ext cx="1157240" cy="280782"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:limLow>
+                          <m:limLowPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:limLowPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>lim</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:lim>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>→</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∞</m:t>
+                            </m:r>
+                          </m:lim>
+                        </m:limLow>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1438603" y="7554310"/>
+              <a:ext cx="1157240" cy="280782"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>lim_(𝑛→∞)⁡𝑓(𝑥_𝑛 )=0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370489</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>107730</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1012841" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1736834" y="16044040"/>
+              <a:ext cx="1012841" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1736834" y="16044040"/>
+              <a:ext cx="1012841" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_𝑛≔𝑥_𝑛−𝐵</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>455886</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15765</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="994695" cy="223074"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2505403" y="11222420"/>
+              <a:ext cx="994695" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&gt;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2505403" y="11222420"/>
+              <a:ext cx="994695" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐵^2+𝐶^2&gt;0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673326" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2351690" y="10805948"/>
+              <a:ext cx="673326" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∈</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐹</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2351690" y="10805948"/>
+              <a:ext cx="673326" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐵,𝐶∈𝐹</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2715038" cy="957378"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543707" y="16612914"/>
+              <a:ext cx="2715038" cy="957378"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:acc>
+                                      <m:accPr>
+                                        <m:chr m:val="̅"/>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:accPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                    </m:acc>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>−</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝐵</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                    <a:ln>
+                                      <a:noFill/>
+                                    </a:ln>
+                                    <a:solidFill>
+                                      <a:prstClr val="black"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:uLnTx/>
+                                    <a:uFillTx/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                    <a:ln>
+                                      <a:noFill/>
+                                    </a:ln>
+                                    <a:solidFill>
+                                      <a:prstClr val="black"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:uLnTx/>
+                                    <a:uFillTx/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543707" y="16612914"/>
+              <a:ext cx="2715038" cy="957378"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑛+1)−𝐵=1/2 (𝑥_𝑛−𝐵+(𝑥 ̅−𝐵)^2/(𝑥_𝑛−𝐵))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_(𝑛+1)≔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑦 ̅^2+𝑦_𝑛^2)/(2𝑦_𝑛 ) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1751442" cy="275204"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1806466" y="16337017"/>
+              <a:ext cx="1751442" cy="275204"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1806466" y="16337017"/>
+              <a:ext cx="1751442" cy="275204"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦 ̅≔𝑥 ̅−𝐵=√(𝐵^2+𝐶)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>229913</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>178675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19706</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>84082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="グラフ 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1230978" cy="468590"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366345" y="19483552"/>
+              <a:ext cx="1230978" cy="468590"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:prstClr val="black"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:solidFill>
+                                  <a:prstClr val="black"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:uLnTx/>
+                                <a:uFillTx/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366345" y="19483552"/>
+              <a:ext cx="1230978" cy="468590"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑛+1)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥_𝑛^2+𝐶)/〖2𝑥〗_𝑛  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1449307" cy="276999"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="998483" y="20252121"/>
+              <a:ext cx="1449307" cy="276999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="998483" y="20252121"/>
+              <a:ext cx="1449307" cy="276999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 ̅≔𝐵+√(𝐵^2+𝐶)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>538656</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600356" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1221828" y="21257172"/>
+              <a:ext cx="600356" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1221828" y="21257172"/>
+              <a:ext cx="600356" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_0≔𝐶</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             </a:p>
@@ -15482,41 +22177,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C3"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A85" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15584,270 +22249,335 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C22" s="10"/>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="6" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B29">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E39" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F40">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F42">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F44">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C48">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E49">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G52">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G59">
         <v>1</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G53">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E55">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E62">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G58">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="G65">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G61">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E64">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="E71">
         <v>3</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G67">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="G74">
         <v>1</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G69">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="G76">
         <v>2</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C76">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C83">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C77">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C84">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C78">
-        <v>6</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C85">
+        <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C80" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D92" t="s">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D99" t="s">
         <v>44</v>
       </c>
     </row>
@@ -15859,12 +22589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16203,19 +22933,19 @@
       </c>
       <c r="E130" s="6">
         <f ca="1">RAND()*10</f>
-        <v>1.5613777095521697</v>
+        <v>8.0645679068632354</v>
       </c>
       <c r="F130" s="6">
         <f ca="1">RAND()*10</f>
-        <v>9.1756971777813465</v>
+        <v>0.81193841789655163</v>
       </c>
       <c r="G130" s="6">
         <f t="array" aca="1" ref="G130:H130" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E130:F130)))+V_NN</f>
-        <v>3.2514835319954853</v>
+        <v>-6.5986181327410165</v>
       </c>
       <c r="H130" s="6">
         <f ca="1"/>
-        <v>7.9081178109488599</v>
+        <v>11.809327947599741</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.4">
@@ -16225,19 +22955,19 @@
       </c>
       <c r="E131" s="6">
         <f t="shared" ref="E131:F133" ca="1" si="0">RAND()*10</f>
-        <v>3.8835988679248867E-2</v>
+        <v>0.21586656995672082</v>
       </c>
       <c r="F131" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9027212035321259</v>
+        <v>5.0578116247844749</v>
       </c>
       <c r="G131" s="6">
         <f t="array" aca="1" ref="G131:H131" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E131:F131)))+V_NN</f>
-        <v>-1.3842617214393491</v>
+        <v>-0.32494347979478544</v>
       </c>
       <c r="H131" s="6">
         <f ca="1"/>
-        <v>4.9700444861210737</v>
+        <v>5.4634191620981047</v>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.4">
@@ -16247,19 +22977,19 @@
       </c>
       <c r="E132" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9846708039983652</v>
+        <v>5.6538781934506721</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0550840591688893</v>
+        <v>1.1536590925797863</v>
       </c>
       <c r="G132" s="6">
         <f t="array" aca="1" ref="G132:H132" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E132:F132)))+V_NN</f>
-        <v>-5.3828271283174089</v>
+        <v>-5.5955731652895935</v>
       </c>
       <c r="H132" s="6">
         <f ca="1"/>
-        <v>12.08070750840572</v>
+        <v>9.5907476116349848</v>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.4">
@@ -16269,19 +22999,19 @@
       </c>
       <c r="E133" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7567454201469377</v>
+        <v>8.2282149288923261</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44260465163959428</v>
+        <v>8.3481888340108483</v>
       </c>
       <c r="G133" s="6">
         <f t="array" aca="1" ref="G133:H133" ca="1">TRANSPOSE(MMULT(M_U,TRANSPOSE(E133:F133)))+V_NN</f>
-        <v>-5.4669882520671322</v>
+        <v>0.59036110056056312</v>
       </c>
       <c r="H133" s="6">
         <f ca="1"/>
-        <v>6.6104049058001468</v>
+        <v>14.076579205259669</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
@@ -16312,12 +23042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16332,112 +23062,531 @@
     <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C13" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C14" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C15" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C16" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
+      <c r="C27" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
+      <c r="C29" s="5"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>126</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C94" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="6">
+        <f>D105</f>
+        <v>1.4142135623730949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C95" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="6">
+        <f>SQRT(D94)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="6">
+        <f>D110</f>
+        <v>1.4142135623730949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F96" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="6">
+        <f>D120</f>
+        <v>1.4142135623730949</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C99" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C100" s="25">
+        <v>0</v>
+      </c>
+      <c r="D100" s="25">
+        <f>D94</f>
+        <v>2</v>
+      </c>
+      <c r="E100" s="27">
+        <f>(D100)/$D$95-1</f>
+        <v>0.41421356237309492</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <f>(D100^2+$D$94)/D100/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E101" s="27">
+        <f t="shared" ref="E101:E120" si="0">(D101)/$D$95-1</f>
+        <v>6.0660171779821193E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C102" s="6">
+        <f>C101+1</f>
+        <v>2</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" ref="D102:D120" si="1">(D101^2+$D$94)/D101/2</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E102" s="27">
+        <f t="shared" si="0"/>
+        <v>1.7346066809422744E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C103" s="6">
+        <f t="shared" ref="C103:C120" si="2">C102+1</f>
+        <v>3</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142156862745099</v>
+      </c>
+      <c r="E103" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5018250929532684E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C104" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623746899</v>
+      </c>
+      <c r="E104" s="27">
+        <f t="shared" si="0"/>
+        <v>1.127542503809309E-12</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C105" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E105" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C106" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E106" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C107" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E107" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C108" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E108" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C109" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E109" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C110" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E110" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C111" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E111" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C112" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E112" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C113" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E113" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C114" s="6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E114" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C115" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E115" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C116" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E116" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C117" s="6">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E117" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C118" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E118" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C119" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E119" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C120" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="E120" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16445,4 +23594,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>